--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,617 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name:</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ECount</t>
+          <t>ZDT2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LCount</t>
+          <t>0.0562889</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0001250</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1060</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCount:</t>
+          <t>0.1301241</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8.0422574E−05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.3862457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0001025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1020730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0001407</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3.399433</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0001451</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12122</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ZDT3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0400696</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6.5671911E−05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0568309</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0001067</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0715858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.5668476E−05</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2939</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.2190788</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5.1748026E−05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5144</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.906149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.5259152E−05</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZDT4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15.5541515</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.00326366</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15.2679310</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.05197270</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45.9917687</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.07690890</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2723</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>199.853846</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.00142771</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1163.3159227</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.0002879</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12188</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ZDT6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.87536406</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5.6445697E−05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9.88116200</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8.5149857E−05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9.86691770</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.0003851</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14.23815193</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.0004134</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5077</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22.2498312</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.00052517</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10559</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="96">
+    <mergeCell ref="C23"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B20"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="B19"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="A24"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="B22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="B23"/>
     <mergeCell ref="B1"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="A22"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="B15"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="B16"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C20"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="B3"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="C22"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="A21"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,135 +424,205 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>langs</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>syst.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>mAP</t>
+          <t>ρtest</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ρadv</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UvA-Euvision</t>
+          <t>WMT18∗</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>en-de</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>SMT NMT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.6%</t>
+          <t>0.597 0.456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.030 -0.017</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Deep Insight</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>en-cs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>0.609</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.047</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CUHK DeepID-Net</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>en-lv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>SMT NMT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>0.509 0.621</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.012 0.030</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GoogLeNet</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>de-en</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>0.697</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WMT19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>en-de</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NMT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.423</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>en-ru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NMT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.439</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-0.036</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="31">
     <mergeCell ref="D4"/>
-    <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
+    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="A5"/>
+    <mergeCell ref="E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,83 +424,205 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Method</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ConvAI2</t>
+          <t>Input Data (Dimension)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>WoW</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ED</t>
+          <t>SLO (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MT (B-FT)</t>
+          <t>GoogLeNet (goo)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8878</t>
+          <t>ImageNet (3x224x224))</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9274</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.6241</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MT (A-FT)</t>
+          <t>LeNet (le)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>MNIST (1x28x28)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9094</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.6136</t>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ResNet50 (res)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ImageNet (3x224x224)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SSD-MobileNet (ssd)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camera Data (3x300x300)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VGG-16 (vgg)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ImageNet (3x224x224)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MnasNet (nas)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ImageNet (3x224x224)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mobilenet_v2 (mob)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ImageNet(3x224x224)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DenseNet (den)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ImageNet(3x224x224)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Base Bert (be)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rand. Index Vector(1x14)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="30">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="C9"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="C3"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C1"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,205 +424,125 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Input Data (Dimension)</t>
+          <t>Decode Filtration Rate (%)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SLO (ms)</t>
+          <t>Inference Filtration Rate (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GoogLeNet (goo)</t>
+          <t>amsterdam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ImageNet (3x224x224))</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>99.60</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LeNet (le)</t>
+          <t>archie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MNIST (1x28x28)</t>
+          <t>72.94</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>99.15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ResNet50 (res)</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ImageNet (3x224x224)</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>99.79</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SSD-MobileNet (ssd)</t>
+          <t>shinjuku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camera Data (3x300x300)</t>
+          <t>77.18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>99.26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VGG-16 (vgg)</t>
+          <t>taipei</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ImageNet (3x224x224)</t>
+          <t>74.03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>142</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MnasNet (nas)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ImageNet (3x224x224)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mobilenet_v2 (mob)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ImageNet(3x224x224)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DenseNet (den)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ImageNet(3x224x224)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Base Bert (be)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rand. Index Vector(1x14)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22</t>
+          <t>99.81</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="B9"/>
+  <mergeCells count="18">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="C4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="C7"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="C1"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="A10"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="B3"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,207 +422,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Input Data (Dimension)</t>
+          <t>Prec</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SLO (ms)</t>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GoogLeNet (goo)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ImageNet (3x224x224))</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>66</t>
+          <t>Switchboard1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LeNet (le)</t>
+          <t>India et al. [43]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MNIST (1x28x28)</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ResNet50 (res)</t>
+          <t>Ours</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ImageNet (3x224x224)</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SSD-MobileNet (ssd)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Camera Data (3x300x300)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>VGG-16 (vgg)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ImageNet (3x224x224)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MnasNet (nas)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ImageNet (3x224x224)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mobilenet_v2 (mob)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ImageNet(3x224x224)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DenseNet (den)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ImageNet(3x224x224)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Base Bert (be)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rand. Index Vector(1x14)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22</t>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5.90</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A8"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="B9"/>
+  <mergeCells count="16">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="A10"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="B7"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_4.xlsx
+++ b/table_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,126 +422,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Decode Filtration Rate (%)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Inference Filtration Rate (%)</t>
+          <t>GPU Specification</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amsterdam</t>
+          <t>CUDA cores</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>87.16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>99.60</t>
+          <t>4,352</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>archie</t>
+          <t>Memory Capacity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>99.15</t>
+          <t>11 GB GDDR6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>Memory Bandwidth</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>99.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>shinjuku</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>77.18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>taipei</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>74.03</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>99.81</t>
+          <t>616 GB/sec</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="8">
     <mergeCell ref="B1"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="C4"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="C3"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B6"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="C2"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
